--- a/grb_map/2_supermarket_map/supermarket-crawler/static_analysis/china_offical_huarun_format.xlsx
+++ b/grb_map/2_supermarket_map/supermarket-crawler/static_analysis/china_offical_huarun_format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7670" activeTab="1"/>
+    <workbookView windowWidth="14640" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>安徽省</t>
   </si>
@@ -332,52 +332,55 @@
     <t>新疆</t>
   </si>
   <si>
+    <t>新疆维吾尔自治区乌鲁木齐市</t>
+  </si>
+  <si>
+    <t>云南省</t>
+  </si>
+  <si>
+    <t>云南省昆明市</t>
+  </si>
+  <si>
+    <t>浙江省</t>
+  </si>
+  <si>
+    <t>浙江省杭州市</t>
+  </si>
+  <si>
+    <t>浙江省湖州市</t>
+  </si>
+  <si>
+    <t>浙江省金华市</t>
+  </si>
+  <si>
+    <t>浙江省嘉兴市</t>
+  </si>
+  <si>
+    <t>浙江省宁波市</t>
+  </si>
+  <si>
+    <t>浙江省绍兴市</t>
+  </si>
+  <si>
+    <t>浙江省台州市</t>
+  </si>
+  <si>
+    <t>浙江省舟山市</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>门店数</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>福建省厦门市</t>
+  </si>
+  <si>
     <t>新疆乌鲁木齐市</t>
-  </si>
-  <si>
-    <t>云南省</t>
-  </si>
-  <si>
-    <t>云南省昆明市</t>
-  </si>
-  <si>
-    <t>浙江省</t>
-  </si>
-  <si>
-    <t>浙江省杭州市</t>
-  </si>
-  <si>
-    <t>浙江省湖州市</t>
-  </si>
-  <si>
-    <t>浙江省金华市</t>
-  </si>
-  <si>
-    <t>浙江省嘉兴市</t>
-  </si>
-  <si>
-    <t>浙江省宁波市</t>
-  </si>
-  <si>
-    <t>浙江省绍兴市</t>
-  </si>
-  <si>
-    <t>浙江省台州市</t>
-  </si>
-  <si>
-    <t>浙江省舟山市</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>门店数</t>
-  </si>
-  <si>
-    <t>排名</t>
-  </si>
-  <si>
-    <t>福建省厦门市</t>
   </si>
   <si>
     <t>福建省泉州市</t>
@@ -400,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -422,7 +425,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,23 +462,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,53 +499,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,16 +521,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,6 +540,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,13 +570,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,49 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,13 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,18 +666,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -693,7 +678,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,43 +732,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,20 +766,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,6 +812,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -831,15 +832,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,6 +850,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -866,10 +869,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -878,121 +881,121 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,10 +1004,10 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,13 +1406,13 @@
   <sheetPr/>
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B73" sqref="B$1:C$1048576"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="29.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="28.3636363636364" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2388,15 +2391,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="23.6363636363636" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1818181818182" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
@@ -3050,7 +3053,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -3072,40 +3075,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B57">
         <v>2</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="1"/>
-        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>RANK(B58,B:B)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>RANK(B59,B:B)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3116,8 +3115,8 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>RANK(B60,B:B)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3128,422 +3127,434 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>RANK(B61,B:B)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>RANK(B62,B:B)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>RANK(B63,B:B)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>RANK(B64,B:B)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>RANK(B65,B:B)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f>RANK(B66,B:B)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C95" si="2">RANK(B67,B:B)</f>
-        <v>57</v>
+        <f>RANK(B67,B:B)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <f t="shared" ref="C68:C96" si="2">RANK(B68,B:B)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="D81" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D82" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="D83" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/grb_map/2_supermarket_map/supermarket-crawler/static_analysis/china_offical_huarun_format.xlsx
+++ b/grb_map/2_supermarket_map/supermarket-crawler/static_analysis/china_offical_huarun_format.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>安徽省</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>福建省厦门市</t>
+  </si>
+  <si>
+    <t>福建省福州市</t>
   </si>
   <si>
     <t>新疆乌鲁木齐市</t>
@@ -2393,8 +2396,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2849,7 +2852,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -3053,7 +3056,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -3109,7 +3112,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3121,7 +3124,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3133,7 +3136,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3383,7 +3386,7 @@
         <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3398,7 +3401,7 @@
         <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:3">

--- a/grb_map/2_supermarket_map/supermarket-crawler/static_analysis/china_offical_huarun_format.xlsx
+++ b/grb_map/2_supermarket_map/supermarket-crawler/static_analysis/china_offical_huarun_format.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>安徽省</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>福建省福州市</t>
-  </si>
-  <si>
-    <t>新疆乌鲁木齐市</t>
   </si>
   <si>
     <t>福建省泉州市</t>
@@ -407,8 +404,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -421,6 +418,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -428,15 +432,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,6 +447,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -458,7 +509,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,69 +539,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,9 +553,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,7 +570,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,13 +648,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,13 +714,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,31 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,55 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,6 +773,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -794,23 +806,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,23 +815,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,6 +846,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -872,10 +869,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,133 +881,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2394,10 +2391,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3056,58 +3053,58 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
+        <f>RANK(B55,B:B)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <f>RANK(B57,B:B)</f>
         <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <f>RANK(B58,B:B)</f>
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
         <f>RANK(B59,B:B)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3119,7 +3116,7 @@
       </c>
       <c r="C60">
         <f>RANK(B60,B:B)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3131,433 +3128,421 @@
       </c>
       <c r="C61">
         <f>RANK(B61,B:B)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
         <f>RANK(B62,B:B)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
         <f>RANK(B63,B:B)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
         <f>RANK(B64,B:B)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
         <f>RANK(B65,B:B)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
         <f>RANK(B66,B:B)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <f>RANK(B67,B:B)</f>
-        <v>58</v>
+        <f t="shared" ref="C67:C95" si="2">RANK(B67,B:B)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C96" si="2">RANK(B68,B:B)</f>
-        <v>58</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
         <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D81" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D82" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
         <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="D83" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
         <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/grb_map/2_supermarket_map/supermarket-crawler/static_analysis/china_offical_huarun_format.xlsx
+++ b/grb_map/2_supermarket_map/supermarket-crawler/static_analysis/china_offical_huarun_format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14640" windowHeight="7260" activeTab="1"/>
+    <workbookView windowWidth="19100" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>安徽省</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>排名</t>
+  </si>
+  <si>
+    <t>上海市</t>
   </si>
   <si>
     <t>福建省厦门市</t>
@@ -404,8 +407,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -418,13 +421,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -432,7 +428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,6 +436,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -455,13 +459,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -477,11 +480,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,23 +517,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,23 +532,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,15 +550,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,7 +573,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,55 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,67 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,43 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,17 +776,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,24 +822,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,26 +843,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,10 +872,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,7 +884,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,124 +893,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1406,7 +1409,7 @@
   <sheetPr/>
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
@@ -2391,10 +2394,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2435,40 +2438,39 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C34" si="0">RANK(B3,B:B)</f>
+        <f>RANK(B3,B:B)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="C5:C35" si="0">RANK(B5,B:B)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -2477,10 +2479,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -2489,10 +2491,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -2501,10 +2503,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -2513,10 +2515,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -2525,10 +2527,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -2537,10 +2539,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -2549,10 +2551,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -2561,550 +2563,550 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C66" si="1">RANK(B35,B:B)</f>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" ref="C36:C67" si="1">RANK(B36,B:B)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <f>RANK(B55,B:B)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <f>RANK(B56,B:B)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="B57">
         <v>2</v>
-      </c>
-      <c r="C57">
-        <f>RANK(B57,B:B)</f>
-        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <f>RANK(B58,B:B)</f>
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
         <f>RANK(B59,B:B)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3116,7 +3118,7 @@
       </c>
       <c r="C60">
         <f>RANK(B60,B:B)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3128,421 +3130,433 @@
       </c>
       <c r="C61">
         <f>RANK(B61,B:B)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
         <f>RANK(B62,B:B)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
         <f>RANK(B63,B:B)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
         <f>RANK(B64,B:B)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
         <f>RANK(B65,B:B)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
         <f>RANK(B66,B:B)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C95" si="2">RANK(B67,B:B)</f>
-        <v>57</v>
+        <f>RANK(B67,B:B)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <f t="shared" ref="C68:C96" si="2">RANK(B68,B:B)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="D81" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D82" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="D83" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/grb_map/2_supermarket_map/supermarket-crawler/static_analysis/china_offical_huarun_format.xlsx
+++ b/grb_map/2_supermarket_map/supermarket-crawler/static_analysis/china_offical_huarun_format.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet0" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="129">
   <si>
     <t>安徽省</t>
   </si>
@@ -399,19 +399,17 @@
   </si>
   <si>
     <t>分布城市94</t>
+  </si>
+  <si>
+    <t>广西壮族自治区百色市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,345 +418,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -766,255 +440,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,59 +459,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1107,6 +494,36 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1401,22 +818,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="28.3636363636364" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1439,16 +856,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:3">
@@ -1677,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:3">
@@ -1700,6 +1117,9 @@
         <v>2</v>
       </c>
     </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4"/>
+    </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>33</v>
@@ -1711,13 +1131,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3">
       <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:3">
@@ -1731,10 +1151,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:3">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3">
       <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:3">
@@ -1813,7 +1233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:3">
       <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:3">
@@ -1885,7 +1305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:3">
       <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:3">
@@ -1962,7 +1382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:3">
       <c r="A67" s="3"/>
     </row>
     <row r="68" spans="1:3">
@@ -2030,10 +1450,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:3">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:3">
       <c r="A76" s="3"/>
     </row>
     <row r="77" spans="1:3">
@@ -2065,16 +1485,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:3">
       <c r="A80" s="3"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:3">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:3">
       <c r="A82" s="3"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
         <v>78</v>
       </c>
@@ -2097,10 +1517,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:3">
       <c r="A86" s="3"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:3">
       <c r="A87" s="3"/>
     </row>
     <row r="89" spans="1:3">
@@ -2125,7 +1545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="1:3">
       <c r="B93" s="2" t="s">
         <v>85</v>
       </c>
@@ -2144,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="1:3">
       <c r="B97" s="2" t="s">
         <v>88</v>
       </c>
@@ -2152,7 +1572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
+    <row r="98" spans="1:3">
       <c r="B98" s="2" t="s">
         <v>89</v>
       </c>
@@ -2160,7 +1580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
+    <row r="99" spans="1:3">
       <c r="B99" s="2" t="s">
         <v>90</v>
       </c>
@@ -2168,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
+    <row r="100" spans="1:3">
       <c r="B100" s="2" t="s">
         <v>91</v>
       </c>
@@ -2176,7 +1596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="1:3">
       <c r="B101" s="2" t="s">
         <v>92</v>
       </c>
@@ -2195,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
+    <row r="104" spans="1:3">
       <c r="B104" s="2" t="s">
         <v>95</v>
       </c>
@@ -2203,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
+    <row r="105" spans="1:3">
       <c r="B105" s="2" t="s">
         <v>96</v>
       </c>
@@ -2211,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="1:3">
       <c r="B106" s="2" t="s">
         <v>97</v>
       </c>
@@ -2219,7 +1639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
+    <row r="107" spans="1:3">
       <c r="B107" s="2" t="s">
         <v>98</v>
       </c>
@@ -2227,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
+    <row r="108" spans="1:3">
       <c r="B108" s="2" t="s">
         <v>99</v>
       </c>
@@ -2235,7 +1655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
+    <row r="109" spans="1:3">
       <c r="B109" s="2" t="s">
         <v>100</v>
       </c>
@@ -2243,7 +1663,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
+    <row r="110" spans="1:3">
       <c r="B110" s="2" t="s">
         <v>101</v>
       </c>
@@ -2251,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="1:3">
       <c r="B111" s="2" t="s">
         <v>102</v>
       </c>
@@ -2368,46 +1788,45 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A118:A125"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A118:A125"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.1818181818182" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -2833,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C67" si="1">RANK(B36,B:B)</f>
+        <f t="shared" ref="C36:C55" si="1">RANK(B36,B:B)</f>
         <v>30</v>
       </c>
     </row>
@@ -3077,7 +2496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>105</v>
       </c>
@@ -3093,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <f>RANK(B58,B:B)</f>
+        <f t="shared" ref="C58:C67" si="2">RANK(B58,B:B)</f>
         <v>38</v>
       </c>
     </row>
@@ -3105,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <f>RANK(B59,B:B)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
     </row>
@@ -3117,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <f>RANK(B60,B:B)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
     </row>
@@ -3129,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <f>RANK(B61,B:B)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
     </row>
@@ -3141,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <f>RANK(B62,B:B)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
     </row>
@@ -3153,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <f>RANK(B63,B:B)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
     </row>
@@ -3165,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <f>RANK(B64,B:B)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
     </row>
@@ -3177,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <f>RANK(B65,B:B)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
     </row>
@@ -3189,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <f>RANK(B66,B:B)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
     </row>
@@ -3201,19 +2620,19 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <f>RANK(B67,B:B)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C96" si="2">RANK(B68,B:B)</f>
+        <f t="shared" ref="C68:C96" si="3">RANK(B68,B:B)</f>
         <v>58</v>
       </c>
     </row>
@@ -3225,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3237,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3249,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3261,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3273,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3285,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3297,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3309,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3321,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3333,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3345,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3357,11 +2776,11 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>61</v>
       </c>
@@ -3369,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -3381,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="D82" t="s">
@@ -3396,14 +2815,14 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="D83" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
         <v>76</v>
       </c>
@@ -3411,11 +2830,11 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
         <v>77</v>
       </c>
@@ -3423,11 +2842,11 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
@@ -3435,11 +2854,11 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -3447,11 +2866,11 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -3459,11 +2878,11 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
@@ -3471,11 +2890,11 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -3483,11 +2902,11 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -3495,11 +2914,11 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>98</v>
       </c>
@@ -3507,11 +2926,11 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
@@ -3519,11 +2938,11 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>111</v>
       </c>
@@ -3531,11 +2950,11 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>115</v>
       </c>
@@ -3543,11 +2962,11 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>116</v>
       </c>
@@ -3555,31 +2974,32 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:B94">
-    <sortCondition ref="B1" descending="1"/>
+    <sortCondition descending="1" ref="B1"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="between" text="河北">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="河北">
       <formula>NOT(ISERROR(SEARCH("河北",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="福建">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="福建">
       <formula>NOT(ISERROR(SEARCH("福建",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="between" text="浙江">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="浙江">
       <formula>NOT(ISERROR(SEARCH("浙江",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -3587,30 +3007,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="between" text="浙江">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="浙江">
       <formula>NOT(ISERROR(SEARCH("浙江",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="between" text="江苏">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="江苏">
       <formula>NOT(ISERROR(SEARCH("江苏",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="7" operator="between" text="陕西">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="陕西">
       <formula>NOT(ISERROR(SEARCH("陕西",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B1048576">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>